--- a/Output/April/productivity_agent_valid/productivity_agent_2022-04-25_valid.xlsx
+++ b/Output/April/productivity_agent_valid/productivity_agent_2022-04-25_valid.xlsx
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
       <c r="R46">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="S46">
         <v>597</v>
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="BD46">
-        <v>124.0336134453782</v>
+        <v>128.5714285714286</v>
       </c>
       <c r="BE46">
         <v>83.69158878504673</v>
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="CP46">
-        <v>1.088014153029633</v>
+        <v>1.12781954887218</v>
       </c>
       <c r="CQ46">
         <v>0.5852558656296974</v>
@@ -15796,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="DA46">
-        <v>0.6946310689214567</v>
+        <v>0.7032907437025593</v>
       </c>
     </row>
     <row r="47" spans="1:105">
@@ -16486,7 +16486,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="S49">
         <v>437</v>
@@ -16600,7 +16600,7 @@
         <v>0</v>
       </c>
       <c r="BD49">
-        <v>91.36363636363636</v>
+        <v>93.63636363636363</v>
       </c>
       <c r="BE49">
         <v>63.33333333333333</v>
@@ -16714,7 +16714,7 @@
         <v>0</v>
       </c>
       <c r="CP49">
-        <v>0.8014354066985646</v>
+        <v>0.821371610845295</v>
       </c>
       <c r="CQ49">
         <v>0.4428904428904429</v>
@@ -16747,7 +16747,7 @@
         <v>0</v>
       </c>
       <c r="DA49">
-        <v>0.5295716429319669</v>
+        <v>0.5343913845938137</v>
       </c>
     </row>
     <row r="50" spans="1:105">
